--- a/results/mp/deberta/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.5/avg_0.003_scores.xlsx
@@ -124,15 +124,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>save</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>help</t>
@@ -1490,25 +1490,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6550218340611353</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="L24">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="M24">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1516,25 +1516,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6453900709219859</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L25">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1542,25 +1542,25 @@
         <v>38</v>
       </c>
       <c r="K26">
-        <v>0.6304347826086957</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N26">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1672,25 +1672,25 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5562310030395137</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="L31">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>146</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1698,25 +1698,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.5402298850574713</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L32">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="M32">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="10:17">
